--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\DSA Supreme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A84D46-65A9-46F6-ADB1-36F3F5BC0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CB46D6-DE72-4643-8C10-1ADA8741C83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1938,15 +1938,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
